--- a/asapData/rawData/sampleEssayAI.xlsx
+++ b/asapData/rawData/sampleEssayAI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ssserver4\slredirect$\AS\birdipa2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/christie_barron_mail_utoronto_ca/Documents/bootcamp/AITextDetector/asapData/rawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F2C621-136B-47C4-A146-94FC596A55AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{B4F2C621-136B-47C4-A146-94FC596A55AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{400F29E7-663B-B94E-834E-B4766E10C7CC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" xr2:uid="{DA9ED9DE-7E78-4324-A704-197D1D906248}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="10400" xr2:uid="{DA9ED9DE-7E78-4324-A704-197D1D906248}"/>
   </bookViews>
   <sheets>
     <sheet name="Essay Set 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Dear Editor,
 As the use of computers becomes more widespread, the debate over their impact on society intensifies. While some may argue that the growth in technology has only positive effects, I firmly believe that the increasing reliance on computers has detrimental effects on people and the world around us.
@@ -123,6 +123,12 @@
 In conclusion, while there may be some valid concerns about the effects of computers on society, the benefits far outweigh the drawbacks. We should embrace technology as a tool for personal and societal growth, and continue to explore its potential to improve our lives.
 Sincerely,
 [Your Name]</t>
+  </si>
+  <si>
+    <t>essay</t>
+  </si>
+  <si>
+    <t>essay_set</t>
   </si>
 </sst>
 </file>
@@ -158,9 +164,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,63 +480,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D188D3E-6413-4D6A-A395-9B071BF990CD}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="173.21875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="173.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>

--- a/asapData/rawData/sampleEssayAI.xlsx
+++ b/asapData/rawData/sampleEssayAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/christie_barron_mail_utoronto_ca/Documents/bootcamp/AITextDetector/asapData/rawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{B4F2C621-136B-47C4-A146-94FC596A55AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{400F29E7-663B-B94E-834E-B4766E10C7CC}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{B4F2C621-136B-47C4-A146-94FC596A55AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{021F7F5B-312D-5D4A-9B8A-478F0CEB507E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="10400" xr2:uid="{DA9ED9DE-7E78-4324-A704-197D1D906248}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Dear Editor,
 As the use of computers becomes more widespread, the debate over their impact on society intensifies. While some may argue that the growth in technology has only positive effects, I firmly believe that the increasing reliance on computers has detrimental effects on people and the world around us.
@@ -130,18 +130,27 @@
   <si>
     <t>essay_set</t>
   </si>
+  <si>
+    <t>Dear Editor, In recent years, the use of computers has grown exponentially, affecting the lives of people in many ways. While computers have brought forth a host of benefits, there are also some negative effects associated with their use. On the plus side, computers have enabled people to access information quickly and easily, as well as facilitated communication between people who are far apart. Additionally, computers are being used in a variety of ways in industry, medicine, education, and other fields, leading to improvements in quality of life and productivity. However, computers can also have a detrimental effect on people’s lives. For instance, they can lead to an increase in sedentary behavior, which can cause numerous health problems. Moreover, the use of computers can lead to a decrease in interpersonal relationships, since people may become increasingly isolated as they spend more time in front of their screens. In conclusion, while computers can be a powerful asset, it is important to recognize their potential negative effects on people’s health and relationships. We must therefore ensure that we use computers in moderation and be aware of the risks associated with them. Sincerely, [Your Name]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF353740"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,8 +173,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,6 +191,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D188D3E-6413-4D6A-A395-9B071BF990CD}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -580,6 +594,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
